--- a/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/CroatianDistributionKeys.xlsx
+++ b/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/CroatianDistributionKeys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="9795"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="9795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Balance sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>VII. SHARE IN LOSS OF COMPANIES LINKED BY VIRTUE OF PARTICIPATING INTEREST</t>
   </si>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,12 +537,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/CroatianDistributionKeys.xlsx
+++ b/DimoPdfToExcelSln/DimoPdfToExcelWeb/wwwroot/Files/CroatianDistributionKeys.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="21075" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Balance sheet" sheetId="1" r:id="rId1"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +529,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -539,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,9 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
     </row>
